--- a/data/pca/factorExposure/factorExposure_2011-07-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02436262192020295</v>
+        <v>-0.01564743306863569</v>
       </c>
       <c r="C2">
-        <v>0.004318577980474921</v>
+        <v>0.001242853628134116</v>
       </c>
       <c r="D2">
-        <v>0.06094198999874222</v>
+        <v>0.03037794678838007</v>
       </c>
       <c r="E2">
-        <v>0.03072837893497914</v>
+        <v>0.01858702761383134</v>
       </c>
       <c r="F2">
-        <v>-0.01561162204341168</v>
+        <v>-0.01130562166766114</v>
       </c>
       <c r="G2">
-        <v>0.04210902989008879</v>
+        <v>0.0258426429546177</v>
       </c>
       <c r="H2">
-        <v>-0.02671056845655273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02839714808257527</v>
+      </c>
+      <c r="I2">
+        <v>-0.03723498901926146</v>
+      </c>
+      <c r="J2">
+        <v>-0.07202572012330517</v>
+      </c>
+      <c r="K2">
+        <v>-0.03086788111097354</v>
+      </c>
+      <c r="L2">
+        <v>-0.04754953423886448</v>
+      </c>
+      <c r="M2">
+        <v>-0.02257223844753443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06770328051628494</v>
+        <v>-0.09683016271359321</v>
       </c>
       <c r="C4">
-        <v>-0.06741511278236872</v>
+        <v>-0.07269084318678526</v>
       </c>
       <c r="D4">
-        <v>0.02556768423162968</v>
+        <v>0.006686156661816902</v>
       </c>
       <c r="E4">
-        <v>0.03182488859343505</v>
+        <v>0.06770663989529994</v>
       </c>
       <c r="F4">
-        <v>0.04737928285746591</v>
+        <v>-0.07276429195015946</v>
       </c>
       <c r="G4">
-        <v>0.0188439788419301</v>
+        <v>0.02247517604017786</v>
       </c>
       <c r="H4">
-        <v>0.02562129330390919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.08187167816183649</v>
+      </c>
+      <c r="I4">
+        <v>-0.007708164693082211</v>
+      </c>
+      <c r="J4">
+        <v>0.0433314843643598</v>
+      </c>
+      <c r="K4">
+        <v>0.02828792152824566</v>
+      </c>
+      <c r="L4">
+        <v>-0.03996106719004055</v>
+      </c>
+      <c r="M4">
+        <v>-0.02068295383742772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1287058289972361</v>
+        <v>-0.1312902831601829</v>
       </c>
       <c r="C6">
-        <v>-0.04567313035156941</v>
+        <v>-0.04907853759469345</v>
       </c>
       <c r="D6">
-        <v>0.06528067447547267</v>
+        <v>0.03106241127925471</v>
       </c>
       <c r="E6">
-        <v>0.0746020222602549</v>
+        <v>0.004444425065686221</v>
       </c>
       <c r="F6">
-        <v>0.06875101427704546</v>
+        <v>-0.06583466297039202</v>
       </c>
       <c r="G6">
-        <v>-0.07145618204870896</v>
+        <v>-0.1483111377988022</v>
       </c>
       <c r="H6">
-        <v>-0.09832513702470864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.1134255871075714</v>
+      </c>
+      <c r="I6">
+        <v>-0.3602922528027105</v>
+      </c>
+      <c r="J6">
+        <v>0.2538573846804743</v>
+      </c>
+      <c r="K6">
+        <v>0.0677066707668178</v>
+      </c>
+      <c r="L6">
+        <v>0.1072685109819862</v>
+      </c>
+      <c r="M6">
+        <v>0.006104655117342863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06616536932329443</v>
+        <v>-0.06793851046629371</v>
       </c>
       <c r="C7">
-        <v>-0.05158970267502096</v>
+        <v>-0.07289576119005468</v>
       </c>
       <c r="D7">
-        <v>0.0580974106400203</v>
+        <v>0.04046499721728464</v>
       </c>
       <c r="E7">
-        <v>0.02413913310541053</v>
+        <v>0.02329445638883474</v>
       </c>
       <c r="F7">
-        <v>0.03695543764125483</v>
+        <v>-0.01804801498370892</v>
       </c>
       <c r="G7">
-        <v>-0.04027503286855749</v>
+        <v>0.005557069652486592</v>
       </c>
       <c r="H7">
-        <v>-0.002183895862500361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.06321419143020099</v>
+      </c>
+      <c r="I7">
+        <v>0.07314188350579412</v>
+      </c>
+      <c r="J7">
+        <v>-0.02206126035640688</v>
+      </c>
+      <c r="K7">
+        <v>0.01340830475777108</v>
+      </c>
+      <c r="L7">
+        <v>-0.04200728132422094</v>
+      </c>
+      <c r="M7">
+        <v>0.1050018468308137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02312138887198058</v>
+        <v>-0.03515573275438851</v>
       </c>
       <c r="C8">
-        <v>-0.01428848959029385</v>
+        <v>-0.008693492705176145</v>
       </c>
       <c r="D8">
-        <v>0.03977771754650448</v>
+        <v>0.01988313907293893</v>
       </c>
       <c r="E8">
-        <v>0.0797664933606628</v>
+        <v>0.06967714250678385</v>
       </c>
       <c r="F8">
-        <v>-0.01032748247180702</v>
+        <v>-0.09064821500246249</v>
       </c>
       <c r="G8">
-        <v>-0.006767293821029077</v>
+        <v>0.001641192285308812</v>
       </c>
       <c r="H8">
-        <v>-0.03401629665335556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.08044244233384443</v>
+      </c>
+      <c r="I8">
+        <v>0.008748894674855727</v>
+      </c>
+      <c r="J8">
+        <v>0.03774280331031483</v>
+      </c>
+      <c r="K8">
+        <v>0.06063753542058451</v>
+      </c>
+      <c r="L8">
+        <v>-0.02154797362035561</v>
+      </c>
+      <c r="M8">
+        <v>-0.07576470371290556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.06924496645107212</v>
+        <v>-0.08293073622494103</v>
       </c>
       <c r="C9">
-        <v>-0.08245794605031363</v>
+        <v>-0.06741919697839552</v>
       </c>
       <c r="D9">
-        <v>0.03371385520823908</v>
+        <v>0.007103476224690869</v>
       </c>
       <c r="E9">
-        <v>0.02820062347282675</v>
+        <v>0.04586392305792029</v>
       </c>
       <c r="F9">
-        <v>0.02787788546651679</v>
+        <v>-0.076294203744767</v>
       </c>
       <c r="G9">
-        <v>0.02229746297817733</v>
+        <v>0.02289736252093842</v>
       </c>
       <c r="H9">
-        <v>0.02150542588034917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.08884975201517065</v>
+      </c>
+      <c r="I9">
+        <v>-0.004167176021350907</v>
+      </c>
+      <c r="J9">
+        <v>0.009098486310304596</v>
+      </c>
+      <c r="K9">
+        <v>0.02116655874018311</v>
+      </c>
+      <c r="L9">
+        <v>-0.01343387356906311</v>
+      </c>
+      <c r="M9">
+        <v>-0.008951435144245746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06050832213229417</v>
+        <v>-0.1081415362709284</v>
       </c>
       <c r="C10">
-        <v>0.1371472898026061</v>
+        <v>0.1685166727052591</v>
       </c>
       <c r="D10">
-        <v>0.05726010384896414</v>
+        <v>0.02357683546819248</v>
       </c>
       <c r="E10">
-        <v>0.02548227264535079</v>
+        <v>0.04494525306050244</v>
       </c>
       <c r="F10">
-        <v>0.01035895264179432</v>
+        <v>0.035275480653283</v>
       </c>
       <c r="G10">
-        <v>-0.0449377939892611</v>
+        <v>-0.01759151550826031</v>
       </c>
       <c r="H10">
-        <v>-0.05034559181267115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.007234522260254023</v>
+      </c>
+      <c r="I10">
+        <v>0.02627301731972403</v>
+      </c>
+      <c r="J10">
+        <v>-0.04788081407512738</v>
+      </c>
+      <c r="K10">
+        <v>-0.004632745701029021</v>
+      </c>
+      <c r="L10">
+        <v>0.03278901142430085</v>
+      </c>
+      <c r="M10">
+        <v>0.04518212349503517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06473718783377067</v>
+        <v>-0.06747591917343618</v>
       </c>
       <c r="C11">
-        <v>-0.08959784802021284</v>
+        <v>-0.07002467878061432</v>
       </c>
       <c r="D11">
-        <v>0.04412709710065844</v>
+        <v>0.02189791134603449</v>
       </c>
       <c r="E11">
-        <v>0.004151139066438576</v>
+        <v>0.01963295430255806</v>
       </c>
       <c r="F11">
-        <v>-0.02602073409026827</v>
+        <v>-0.08900117985539995</v>
       </c>
       <c r="G11">
-        <v>0.02734794019481223</v>
+        <v>0.02129251096304365</v>
       </c>
       <c r="H11">
-        <v>0.02050391921206082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.06281465663750854</v>
+      </c>
+      <c r="I11">
+        <v>0.06273866896658009</v>
+      </c>
+      <c r="J11">
+        <v>-0.09138562903114454</v>
+      </c>
+      <c r="K11">
+        <v>-0.009584113931192557</v>
+      </c>
+      <c r="L11">
+        <v>0.06035637733882292</v>
+      </c>
+      <c r="M11">
+        <v>-0.003299215552802187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.05848254644856155</v>
+        <v>-0.06772870852466518</v>
       </c>
       <c r="C12">
-        <v>-0.05289942609531254</v>
+        <v>-0.05787492829070649</v>
       </c>
       <c r="D12">
-        <v>0.02045228952988213</v>
+        <v>0.007931692160219789</v>
       </c>
       <c r="E12">
-        <v>0.0109041233088805</v>
+        <v>0.02215886322030214</v>
       </c>
       <c r="F12">
-        <v>0.01403052836405582</v>
+        <v>-0.08763943183135472</v>
       </c>
       <c r="G12">
-        <v>-0.01370198877591214</v>
+        <v>0.01870888930782999</v>
       </c>
       <c r="H12">
-        <v>0.02561031645645131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.06896032419833031</v>
+      </c>
+      <c r="I12">
+        <v>0.05323229685490678</v>
+      </c>
+      <c r="J12">
+        <v>-0.09202158846984795</v>
+      </c>
+      <c r="K12">
+        <v>0.05829007172515084</v>
+      </c>
+      <c r="L12">
+        <v>0.05502336353598656</v>
+      </c>
+      <c r="M12">
+        <v>-0.008639276279209556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.04722085995711583</v>
+        <v>-0.04919252723055619</v>
       </c>
       <c r="C13">
-        <v>-0.02444522466579562</v>
+        <v>-0.03616805045031597</v>
       </c>
       <c r="D13">
-        <v>0.00878452035021699</v>
+        <v>0.001663065784884715</v>
       </c>
       <c r="E13">
-        <v>0.01357862853867386</v>
+        <v>0.03189240718665138</v>
       </c>
       <c r="F13">
-        <v>-0.007410806798290787</v>
+        <v>-0.0291776828479882</v>
       </c>
       <c r="G13">
-        <v>0.02611756073267915</v>
+        <v>0.02152602942968438</v>
       </c>
       <c r="H13">
-        <v>0.03796241532630176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.03754439457029467</v>
+      </c>
+      <c r="I13">
+        <v>0.03413972322999893</v>
+      </c>
+      <c r="J13">
+        <v>0.03969987356068087</v>
+      </c>
+      <c r="K13">
+        <v>0.05714924889320595</v>
+      </c>
+      <c r="L13">
+        <v>-0.04206745120066685</v>
+      </c>
+      <c r="M13">
+        <v>0.01486839200447957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04108994580970749</v>
+        <v>-0.04555497313303528</v>
       </c>
       <c r="C14">
-        <v>-0.0175020106132933</v>
+        <v>-0.0272440998947159</v>
       </c>
       <c r="D14">
-        <v>0.01855792772678221</v>
+        <v>0.01353007701980885</v>
       </c>
       <c r="E14">
-        <v>0.01112994304083584</v>
+        <v>0.01578223895854421</v>
       </c>
       <c r="F14">
-        <v>0.04704514572360107</v>
+        <v>-0.05428528300687307</v>
       </c>
       <c r="G14">
-        <v>0.0008313784104161846</v>
+        <v>0.045928941954979</v>
       </c>
       <c r="H14">
-        <v>-0.04173753662281088</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.06996077332609105</v>
+      </c>
+      <c r="I14">
+        <v>0.005452295531326269</v>
+      </c>
+      <c r="J14">
+        <v>0.03547087553729018</v>
+      </c>
+      <c r="K14">
+        <v>-0.002195174088585678</v>
+      </c>
+      <c r="L14">
+        <v>-0.01130692211945293</v>
+      </c>
+      <c r="M14">
+        <v>0.02286558424360743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03456905413495689</v>
+        <v>-0.03349413614260999</v>
       </c>
       <c r="C15">
-        <v>0.005123608883448516</v>
+        <v>-0.01333514732851484</v>
       </c>
       <c r="D15">
-        <v>-0.006458280788655943</v>
+        <v>-0.01180866607620099</v>
       </c>
       <c r="E15">
-        <v>0.02692795025222425</v>
+        <v>0.01171687621209159</v>
       </c>
       <c r="F15">
-        <v>0.02890785581687477</v>
+        <v>-0.01954275478256194</v>
       </c>
       <c r="G15">
-        <v>0.002107114877925274</v>
+        <v>-0.005927819671562652</v>
       </c>
       <c r="H15">
-        <v>0.01491379006027366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04381471764814077</v>
+      </c>
+      <c r="I15">
+        <v>0.02000984663996939</v>
+      </c>
+      <c r="J15">
+        <v>0.06099503941928321</v>
+      </c>
+      <c r="K15">
+        <v>0.008768531608921803</v>
+      </c>
+      <c r="L15">
+        <v>-0.01145571804825488</v>
+      </c>
+      <c r="M15">
+        <v>0.000317474349430896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.04919525678244991</v>
+        <v>-0.06929989460959841</v>
       </c>
       <c r="C16">
-        <v>-0.08009576016426258</v>
+        <v>-0.07591524040811852</v>
       </c>
       <c r="D16">
-        <v>0.02454193985933771</v>
+        <v>0.009874924232757218</v>
       </c>
       <c r="E16">
-        <v>0.02110329636838922</v>
+        <v>0.03210835250922717</v>
       </c>
       <c r="F16">
-        <v>0.0231127223519881</v>
+        <v>-0.08160537177349289</v>
       </c>
       <c r="G16">
-        <v>0.02143465307133544</v>
+        <v>0.0221359130158081</v>
       </c>
       <c r="H16">
-        <v>0.003038950448432802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.08247623118972351</v>
+      </c>
+      <c r="I16">
+        <v>0.05921084398668147</v>
+      </c>
+      <c r="J16">
+        <v>-0.08079112142129539</v>
+      </c>
+      <c r="K16">
+        <v>0.005831995284402814</v>
+      </c>
+      <c r="L16">
+        <v>0.03229501691973841</v>
+      </c>
+      <c r="M16">
+        <v>-0.001369611344346946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.03893941284827825</v>
+        <v>-0.04304455352855642</v>
       </c>
       <c r="C20">
-        <v>-0.04521962248174479</v>
+        <v>-0.03625028497590906</v>
       </c>
       <c r="D20">
-        <v>0.02962877626488471</v>
+        <v>0.02011433717585968</v>
       </c>
       <c r="E20">
-        <v>0.02066189988086931</v>
+        <v>0.01483580154534936</v>
       </c>
       <c r="F20">
-        <v>0.02361097435086009</v>
+        <v>-0.06370072683266631</v>
       </c>
       <c r="G20">
-        <v>0.02460742688483422</v>
+        <v>0.0349362162922285</v>
       </c>
       <c r="H20">
-        <v>0.02117444841563355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.07738238916307968</v>
+      </c>
+      <c r="I20">
+        <v>0.02599429011098449</v>
+      </c>
+      <c r="J20">
+        <v>-0.04259616458800142</v>
+      </c>
+      <c r="K20">
+        <v>0.0544469708867875</v>
+      </c>
+      <c r="L20">
+        <v>-0.004943000304868638</v>
+      </c>
+      <c r="M20">
+        <v>-0.003538310022163738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.01178871893310529</v>
+        <v>-0.02497287541493203</v>
       </c>
       <c r="C21">
-        <v>-0.01375651300169521</v>
+        <v>-0.01185310061984183</v>
       </c>
       <c r="D21">
-        <v>-0.01327965709569072</v>
+        <v>-0.01655726921155422</v>
       </c>
       <c r="E21">
-        <v>0.0814175807650159</v>
+        <v>0.04017518039398316</v>
       </c>
       <c r="F21">
-        <v>-0.004471519760266702</v>
+        <v>-0.03767343546500061</v>
       </c>
       <c r="G21">
-        <v>-0.08073713105910921</v>
+        <v>-0.08524614515440042</v>
       </c>
       <c r="H21">
-        <v>0.02470513477120792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.05725607579511965</v>
+      </c>
+      <c r="I21">
+        <v>0.03102497230430378</v>
+      </c>
+      <c r="J21">
+        <v>0.07253913944976224</v>
+      </c>
+      <c r="K21">
+        <v>0.05390472852371837</v>
+      </c>
+      <c r="L21">
+        <v>0.01359976653463203</v>
+      </c>
+      <c r="M21">
+        <v>0.08203600113801231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.03217424873607108</v>
+        <v>-0.0510177799971795</v>
       </c>
       <c r="C22">
-        <v>-0.06692175005183514</v>
+        <v>-0.06201828982209467</v>
       </c>
       <c r="D22">
-        <v>-0.1087107615183335</v>
+        <v>-0.344474836739475</v>
       </c>
       <c r="E22">
-        <v>0.4346342434634732</v>
+        <v>0.4990429787609795</v>
       </c>
       <c r="F22">
-        <v>0.2018060640222195</v>
+        <v>0.2733321629845539</v>
       </c>
       <c r="G22">
-        <v>0.02604844577477188</v>
+        <v>-0.02322778075682319</v>
       </c>
       <c r="H22">
-        <v>0.2966440129772237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.08446199577511776</v>
+      </c>
+      <c r="I22">
+        <v>-0.061840879503488</v>
+      </c>
+      <c r="J22">
+        <v>0.003590870195942258</v>
+      </c>
+      <c r="K22">
+        <v>-0.009932920693464997</v>
+      </c>
+      <c r="L22">
+        <v>-0.08258766797254204</v>
+      </c>
+      <c r="M22">
+        <v>0.0418891503964497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.03307454904291961</v>
+        <v>-0.05174605212092177</v>
       </c>
       <c r="C23">
-        <v>-0.06577714161745608</v>
+        <v>-0.06226390382929391</v>
       </c>
       <c r="D23">
-        <v>-0.1081772030338565</v>
+        <v>-0.3453413155462365</v>
       </c>
       <c r="E23">
-        <v>0.4362518835780292</v>
+        <v>0.5020740582618842</v>
       </c>
       <c r="F23">
-        <v>0.1994182552236432</v>
+        <v>0.2691400739523826</v>
       </c>
       <c r="G23">
-        <v>0.02506285521975751</v>
+        <v>-0.02276901392653812</v>
       </c>
       <c r="H23">
-        <v>0.2928209147597641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.08457994980369582</v>
+      </c>
+      <c r="I23">
+        <v>-0.06686694321672285</v>
+      </c>
+      <c r="J23">
+        <v>0.005401629809943451</v>
+      </c>
+      <c r="K23">
+        <v>-0.01149416217085885</v>
+      </c>
+      <c r="L23">
+        <v>-0.08085897593240164</v>
+      </c>
+      <c r="M23">
+        <v>0.04098946828444225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.06985995575924907</v>
+        <v>-0.07441011059058504</v>
       </c>
       <c r="C24">
-        <v>-0.08096359443861208</v>
+        <v>-0.07430977550520829</v>
       </c>
       <c r="D24">
-        <v>0.04306483394592628</v>
+        <v>0.008546006692105338</v>
       </c>
       <c r="E24">
-        <v>0.0422094215907331</v>
+        <v>0.04005940457866979</v>
       </c>
       <c r="F24">
-        <v>-0.007805208061193247</v>
+        <v>-0.08690693076312148</v>
       </c>
       <c r="G24">
-        <v>0.0146623008833199</v>
+        <v>0.0149113635455774</v>
       </c>
       <c r="H24">
-        <v>0.004700439234788738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.07043151759581576</v>
+      </c>
+      <c r="I24">
+        <v>0.03371522510155658</v>
+      </c>
+      <c r="J24">
+        <v>-0.0805514558136667</v>
+      </c>
+      <c r="K24">
+        <v>0.01680305395582782</v>
+      </c>
+      <c r="L24">
+        <v>0.05046401021048381</v>
+      </c>
+      <c r="M24">
+        <v>-0.007577951897679636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06187858051695138</v>
+        <v>-0.07134035050288817</v>
       </c>
       <c r="C25">
-        <v>-0.04322582702991216</v>
+        <v>-0.04671176998472407</v>
       </c>
       <c r="D25">
-        <v>0.04328550474887664</v>
+        <v>0.01753857283913745</v>
       </c>
       <c r="E25">
-        <v>0.03899402217153462</v>
+        <v>0.03200843923280994</v>
       </c>
       <c r="F25">
-        <v>0.01196173206877621</v>
+        <v>-0.08751476110656024</v>
       </c>
       <c r="G25">
-        <v>0.03267814115920443</v>
+        <v>0.03944547653825041</v>
       </c>
       <c r="H25">
-        <v>-0.01621350383989223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.0842210082157472</v>
+      </c>
+      <c r="I25">
+        <v>0.02418296505473089</v>
+      </c>
+      <c r="J25">
+        <v>-0.1034378002101467</v>
+      </c>
+      <c r="K25">
+        <v>0.001682150637309068</v>
+      </c>
+      <c r="L25">
+        <v>0.04834980269738051</v>
+      </c>
+      <c r="M25">
+        <v>-0.008377094361228387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.03730418673795591</v>
+        <v>-0.04036611408971308</v>
       </c>
       <c r="C26">
-        <v>-0.02663212497010233</v>
+        <v>-0.02441018675248755</v>
       </c>
       <c r="D26">
-        <v>0.03695872662392741</v>
+        <v>-0.01118545671713324</v>
       </c>
       <c r="E26">
-        <v>0.0002857650828949224</v>
+        <v>0.02866793435296537</v>
       </c>
       <c r="F26">
-        <v>0.04295448534928558</v>
+        <v>-0.03075760717440906</v>
       </c>
       <c r="G26">
-        <v>-0.007034455060396017</v>
+        <v>0.008652373338822406</v>
       </c>
       <c r="H26">
-        <v>0.03227352131615545</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.05236197373413605</v>
+      </c>
+      <c r="I26">
+        <v>0.0603840458005327</v>
+      </c>
+      <c r="J26">
+        <v>0.1003499606320293</v>
+      </c>
+      <c r="K26">
+        <v>0.02262356263028974</v>
+      </c>
+      <c r="L26">
+        <v>-0.03961480347907411</v>
+      </c>
+      <c r="M26">
+        <v>0.1259753532328391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1156932351784433</v>
+        <v>-0.1397365970098616</v>
       </c>
       <c r="C28">
-        <v>0.2946837953843302</v>
+        <v>0.2870779775240088</v>
       </c>
       <c r="D28">
-        <v>0.0533069041743751</v>
+        <v>0.01818112828188664</v>
       </c>
       <c r="E28">
-        <v>0.002365179784822409</v>
+        <v>0.02712758102925342</v>
       </c>
       <c r="F28">
-        <v>0.02339914790125212</v>
+        <v>0.003922968632988995</v>
       </c>
       <c r="G28">
-        <v>-0.07133923554363038</v>
+        <v>-0.02860499490831988</v>
       </c>
       <c r="H28">
-        <v>-0.0005875278730742402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.0007642665820866135</v>
+      </c>
+      <c r="I28">
+        <v>0.02436206123772563</v>
+      </c>
+      <c r="J28">
+        <v>0.04075814252924369</v>
+      </c>
+      <c r="K28">
+        <v>0.007964334290721744</v>
+      </c>
+      <c r="L28">
+        <v>-0.03357538839294693</v>
+      </c>
+      <c r="M28">
+        <v>-0.03115263275295072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04563167759496212</v>
+        <v>-0.04517448147397386</v>
       </c>
       <c r="C29">
-        <v>-0.007659797996147093</v>
+        <v>-0.02281328962955352</v>
       </c>
       <c r="D29">
-        <v>0.01170852784737148</v>
+        <v>0.01061928583221772</v>
       </c>
       <c r="E29">
-        <v>0.02760186677939772</v>
+        <v>0.02310576189590683</v>
       </c>
       <c r="F29">
-        <v>0.03864114691995128</v>
+        <v>-0.04843952360953448</v>
       </c>
       <c r="G29">
-        <v>0.01585539207965943</v>
+        <v>0.05508492965253782</v>
       </c>
       <c r="H29">
-        <v>-0.01423383233557666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.05742283084100706</v>
+      </c>
+      <c r="I29">
+        <v>0.0009207621450899204</v>
+      </c>
+      <c r="J29">
+        <v>0.01583317038043033</v>
+      </c>
+      <c r="K29">
+        <v>0.002480217987656769</v>
+      </c>
+      <c r="L29">
+        <v>-0.01835563253763974</v>
+      </c>
+      <c r="M29">
+        <v>0.01452477498354899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1209130818692067</v>
+        <v>-0.1024585471007881</v>
       </c>
       <c r="C30">
-        <v>-0.07653453878975836</v>
+        <v>-0.06527254097912014</v>
       </c>
       <c r="D30">
-        <v>0.07586197180491853</v>
+        <v>0.014425299275896</v>
       </c>
       <c r="E30">
-        <v>0.04795134499595172</v>
+        <v>0.07944688981663416</v>
       </c>
       <c r="F30">
-        <v>0.0539187482414273</v>
+        <v>-0.1319087857666989</v>
       </c>
       <c r="G30">
-        <v>-0.01679075106797562</v>
+        <v>-0.02738742091559841</v>
       </c>
       <c r="H30">
-        <v>0.020229576868973</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1720345604445862</v>
+      </c>
+      <c r="I30">
+        <v>-0.01079078353832165</v>
+      </c>
+      <c r="J30">
+        <v>-0.06203344576184372</v>
+      </c>
+      <c r="K30">
+        <v>0.1780382812883779</v>
+      </c>
+      <c r="L30">
+        <v>-0.37166764362921</v>
+      </c>
+      <c r="M30">
+        <v>-0.2297037879785269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04834241404373201</v>
+        <v>-0.03443603154139653</v>
       </c>
       <c r="C31">
-        <v>-0.02111045381872839</v>
+        <v>-0.04307716357653549</v>
       </c>
       <c r="D31">
-        <v>0.002443273929759438</v>
+        <v>-0.01037842950768069</v>
       </c>
       <c r="E31">
-        <v>-0.005810450576710267</v>
+        <v>0.0032368705192794</v>
       </c>
       <c r="F31">
-        <v>0.02614256105444081</v>
+        <v>-0.01206220526943685</v>
       </c>
       <c r="G31">
-        <v>0.02425314497277193</v>
+        <v>0.05359562491932376</v>
       </c>
       <c r="H31">
-        <v>0.03604676602725161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03161258528816653</v>
+      </c>
+      <c r="I31">
+        <v>0.007385174904198923</v>
+      </c>
+      <c r="J31">
+        <v>0.003369475463934887</v>
+      </c>
+      <c r="K31">
+        <v>0.03248007013678234</v>
+      </c>
+      <c r="L31">
+        <v>0.008478142119187763</v>
+      </c>
+      <c r="M31">
+        <v>-0.00453191147788405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02450027005863994</v>
+        <v>-0.04671939407477271</v>
       </c>
       <c r="C32">
-        <v>0.002315031738097555</v>
+        <v>0.003156741393021674</v>
       </c>
       <c r="D32">
-        <v>-0.03635992933650879</v>
+        <v>-0.03281872709752949</v>
       </c>
       <c r="E32">
-        <v>0.07732284863072604</v>
+        <v>0.04973319239391825</v>
       </c>
       <c r="F32">
-        <v>0.01461614836244863</v>
+        <v>-0.04696926096114215</v>
       </c>
       <c r="G32">
-        <v>0.01697687777041621</v>
+        <v>-0.003385028212999373</v>
       </c>
       <c r="H32">
-        <v>0.06215795532148234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.02100357643062812</v>
+      </c>
+      <c r="I32">
+        <v>0.0722985737124881</v>
+      </c>
+      <c r="J32">
+        <v>0.06786209364648767</v>
+      </c>
+      <c r="K32">
+        <v>0.01759100403721236</v>
+      </c>
+      <c r="L32">
+        <v>-0.1240044092291683</v>
+      </c>
+      <c r="M32">
+        <v>-0.07709734061690875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.09696337409918813</v>
+        <v>-0.0978260589357365</v>
       </c>
       <c r="C33">
-        <v>-0.05953354147626856</v>
+        <v>-0.06689817425271037</v>
       </c>
       <c r="D33">
-        <v>0.01088721964072179</v>
+        <v>-0.02208223855444113</v>
       </c>
       <c r="E33">
-        <v>0.004338389995383523</v>
+        <v>0.01153935381675797</v>
       </c>
       <c r="F33">
-        <v>0.02066162021568221</v>
+        <v>-0.057430427134786</v>
       </c>
       <c r="G33">
-        <v>0.03301581529655518</v>
+        <v>0.0546367215206243</v>
       </c>
       <c r="H33">
-        <v>0.0316095611109264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.05130307689892071</v>
+      </c>
+      <c r="I33">
+        <v>0.008106840214205307</v>
+      </c>
+      <c r="J33">
+        <v>0.02566669865409314</v>
+      </c>
+      <c r="K33">
+        <v>0.03514490462267755</v>
+      </c>
+      <c r="L33">
+        <v>0.01068023773103428</v>
+      </c>
+      <c r="M33">
+        <v>-0.03612932655284067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05206136520786636</v>
+        <v>-0.0622435994917513</v>
       </c>
       <c r="C34">
-        <v>-0.07602474897012071</v>
+        <v>-0.06148314138975063</v>
       </c>
       <c r="D34">
-        <v>0.02577969910654835</v>
+        <v>0.009742153284919805</v>
       </c>
       <c r="E34">
-        <v>0.0455697108576078</v>
+        <v>0.02031064342852362</v>
       </c>
       <c r="F34">
-        <v>0.01502907522465178</v>
+        <v>-0.07850851167554231</v>
       </c>
       <c r="G34">
-        <v>0.01751804361589092</v>
+        <v>0.03396082749648327</v>
       </c>
       <c r="H34">
-        <v>0.001935951289527316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.07031983737668704</v>
+      </c>
+      <c r="I34">
+        <v>0.02974475639461418</v>
+      </c>
+      <c r="J34">
+        <v>-0.07526742395282851</v>
+      </c>
+      <c r="K34">
+        <v>0.01527484009377624</v>
+      </c>
+      <c r="L34">
+        <v>0.05410468093170501</v>
+      </c>
+      <c r="M34">
+        <v>0.0137287209962396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.03774333767895233</v>
+        <v>-0.02990657206319019</v>
       </c>
       <c r="C35">
-        <v>-0.01849199554297312</v>
+        <v>-0.02365850411679796</v>
       </c>
       <c r="D35">
-        <v>0.006356586384471907</v>
+        <v>-0.002054003058392852</v>
       </c>
       <c r="E35">
-        <v>0.02029369573274984</v>
+        <v>0.0007631571841669616</v>
       </c>
       <c r="F35">
-        <v>0.04194961815776349</v>
+        <v>-0.01228581088767943</v>
       </c>
       <c r="G35">
-        <v>0.02732826681712747</v>
+        <v>0.02479792459294613</v>
       </c>
       <c r="H35">
-        <v>0.04394675549972868</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.06102763553415664</v>
+      </c>
+      <c r="I35">
+        <v>0.03085738604091182</v>
+      </c>
+      <c r="J35">
+        <v>-0.03606696050294638</v>
+      </c>
+      <c r="K35">
+        <v>0.0210600692731543</v>
+      </c>
+      <c r="L35">
+        <v>-0.02491435723774548</v>
+      </c>
+      <c r="M35">
+        <v>0.007981849559863047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02663092109626973</v>
+        <v>-0.03019433640288992</v>
       </c>
       <c r="C36">
-        <v>-0.01573710532528766</v>
+        <v>-0.0174952422582838</v>
       </c>
       <c r="D36">
-        <v>0.02593103512473953</v>
+        <v>0.003618204929872267</v>
       </c>
       <c r="E36">
-        <v>0.02684432657856177</v>
+        <v>0.02929203266359021</v>
       </c>
       <c r="F36">
-        <v>0.02670865904052303</v>
+        <v>-0.0451757603060314</v>
       </c>
       <c r="G36">
-        <v>0.01690019382924361</v>
+        <v>0.02664775938460837</v>
       </c>
       <c r="H36">
-        <v>0.01784087281423591</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.05856848261026327</v>
+      </c>
+      <c r="I36">
+        <v>0.01309611162052855</v>
+      </c>
+      <c r="J36">
+        <v>0.01534188157642485</v>
+      </c>
+      <c r="K36">
+        <v>0.03287106606053675</v>
+      </c>
+      <c r="L36">
+        <v>0.01159205808714827</v>
+      </c>
+      <c r="M36">
+        <v>0.06346164213338019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04012498262101737</v>
+        <v>-0.03400062334627042</v>
       </c>
       <c r="C38">
-        <v>-0.02558234359411509</v>
+        <v>-0.04835068782879644</v>
       </c>
       <c r="D38">
-        <v>-0.02871876523793164</v>
+        <v>-0.01267634190138479</v>
       </c>
       <c r="E38">
-        <v>0.05208475608849907</v>
+        <v>0.02126904331036237</v>
       </c>
       <c r="F38">
-        <v>0.002963079108655679</v>
+        <v>0.0429822985535145</v>
       </c>
       <c r="G38">
-        <v>-0.009100927303103086</v>
+        <v>0.01058741875478042</v>
       </c>
       <c r="H38">
-        <v>0.03711361217640401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.08048615462653656</v>
+      </c>
+      <c r="I38">
+        <v>0.03690716019073089</v>
+      </c>
+      <c r="J38">
+        <v>0.09122770436086339</v>
+      </c>
+      <c r="K38">
+        <v>-0.05289355686874276</v>
+      </c>
+      <c r="L38">
+        <v>-0.06154673722841191</v>
+      </c>
+      <c r="M38">
+        <v>0.0402550146081363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09377065451464742</v>
+        <v>-0.09257731065250287</v>
       </c>
       <c r="C39">
-        <v>-0.09622662092778965</v>
+        <v>-0.07792939734651207</v>
       </c>
       <c r="D39">
-        <v>0.01791562037174319</v>
+        <v>0.0029590550688632</v>
       </c>
       <c r="E39">
-        <v>0.03832867036638459</v>
+        <v>0.0332276925252404</v>
       </c>
       <c r="F39">
-        <v>-0.01356564842635473</v>
+        <v>-0.09060658480938348</v>
       </c>
       <c r="G39">
-        <v>0.004853705911011706</v>
+        <v>0.02484432331324519</v>
       </c>
       <c r="H39">
-        <v>-0.002803476602810633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.08509921214557169</v>
+      </c>
+      <c r="I39">
+        <v>0.1004714775194118</v>
+      </c>
+      <c r="J39">
+        <v>-0.1566434950307895</v>
+      </c>
+      <c r="K39">
+        <v>0.03801192091605532</v>
+      </c>
+      <c r="L39">
+        <v>-0.08160480444128571</v>
+      </c>
+      <c r="M39">
+        <v>-0.06013389080524748</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.06170493539901021</v>
+        <v>-0.03866276343665528</v>
       </c>
       <c r="C40">
-        <v>-0.02170171073692454</v>
+        <v>-0.05499226269289741</v>
       </c>
       <c r="D40">
-        <v>-0.01922741691649883</v>
+        <v>-0.05418077396849334</v>
       </c>
       <c r="E40">
-        <v>0.1757295053515978</v>
+        <v>0.06177215284092756</v>
       </c>
       <c r="F40">
-        <v>0.06561975809853778</v>
+        <v>-0.1172721701998994</v>
       </c>
       <c r="G40">
-        <v>0.02246641080049164</v>
+        <v>-0.05248480497943219</v>
       </c>
       <c r="H40">
-        <v>0.008732425493110787</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.02873029563851434</v>
+      </c>
+      <c r="I40">
+        <v>0.0853680798709819</v>
+      </c>
+      <c r="J40">
+        <v>-0.02877914129941985</v>
+      </c>
+      <c r="K40">
+        <v>0.01861073420579908</v>
+      </c>
+      <c r="L40">
+        <v>-0.08740979011868048</v>
+      </c>
+      <c r="M40">
+        <v>0.09197917729838184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.0431994951219464</v>
+        <v>-0.03660223777712814</v>
       </c>
       <c r="C41">
-        <v>-0.04842509718645138</v>
+        <v>-0.03659395355022036</v>
       </c>
       <c r="D41">
-        <v>0.004973525361747017</v>
+        <v>0.01514523632934593</v>
       </c>
       <c r="E41">
-        <v>0.004368162432524081</v>
+        <v>-0.02120782685468378</v>
       </c>
       <c r="F41">
-        <v>0.01837877419789415</v>
+        <v>-0.03525975536339698</v>
       </c>
       <c r="G41">
-        <v>0.01505922406156696</v>
+        <v>0.02556764733932516</v>
       </c>
       <c r="H41">
-        <v>0.01733902711147542</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.003618152883579248</v>
+      </c>
+      <c r="I41">
+        <v>0.03854195513470264</v>
+      </c>
+      <c r="J41">
+        <v>-0.003243892649265464</v>
+      </c>
+      <c r="K41">
+        <v>0.01624465466034757</v>
+      </c>
+      <c r="L41">
+        <v>-0.003022651279877562</v>
+      </c>
+      <c r="M41">
+        <v>-0.01222404380754284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05283410246139743</v>
+        <v>-0.05264299885369131</v>
       </c>
       <c r="C43">
-        <v>-0.0417931416694977</v>
+        <v>-0.05170736698187418</v>
       </c>
       <c r="D43">
-        <v>0.02295126710792642</v>
+        <v>0.006683128093729332</v>
       </c>
       <c r="E43">
-        <v>0.02639472131342934</v>
+        <v>0.02514768794178548</v>
       </c>
       <c r="F43">
-        <v>0.005625273701067033</v>
+        <v>-0.01702733271788751</v>
       </c>
       <c r="G43">
-        <v>-0.003125691233631067</v>
+        <v>0.04431265798561154</v>
       </c>
       <c r="H43">
-        <v>0.0632082730102894</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.0004905006864090395</v>
+      </c>
+      <c r="I43">
+        <v>0.02732672853389473</v>
+      </c>
+      <c r="J43">
+        <v>-0.007353029474629478</v>
+      </c>
+      <c r="K43">
+        <v>0.01762695204986352</v>
+      </c>
+      <c r="L43">
+        <v>0.02633326320875685</v>
+      </c>
+      <c r="M43">
+        <v>0.0009388410994746734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.04769394990453002</v>
+        <v>-0.08210656255352819</v>
       </c>
       <c r="C44">
-        <v>-0.02730183747849119</v>
+        <v>-0.05561352183036808</v>
       </c>
       <c r="D44">
-        <v>0.06351020949021656</v>
+        <v>0.02590175370674347</v>
       </c>
       <c r="E44">
-        <v>0.1214099542638035</v>
+        <v>0.1359700161741551</v>
       </c>
       <c r="F44">
-        <v>0.02137883412266043</v>
+        <v>-0.1181835085972805</v>
       </c>
       <c r="G44">
-        <v>0.002156837337464527</v>
+        <v>0.02839270350849643</v>
       </c>
       <c r="H44">
-        <v>-0.03733876709224247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.08784766666134716</v>
+      </c>
+      <c r="I44">
+        <v>0.04963192717684799</v>
+      </c>
+      <c r="J44">
+        <v>-0.04092660254501244</v>
+      </c>
+      <c r="K44">
+        <v>0.001194548281973465</v>
+      </c>
+      <c r="L44">
+        <v>-0.06464124488668459</v>
+      </c>
+      <c r="M44">
+        <v>0.07991933816063997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,166 +2548,271 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.01880052550515822</v>
+        <v>-0.04017690140001384</v>
       </c>
       <c r="C46">
-        <v>-0.03283854001022601</v>
+        <v>-0.04290806510875655</v>
       </c>
       <c r="D46">
-        <v>0.01286165388365137</v>
+        <v>0.003164798691262447</v>
       </c>
       <c r="E46">
-        <v>0.05475978863450634</v>
+        <v>0.04151274742989002</v>
       </c>
       <c r="F46">
-        <v>0.02382451623430824</v>
+        <v>-0.02353991245726303</v>
       </c>
       <c r="G46">
-        <v>0.005662914068908676</v>
+        <v>0.02571133684397806</v>
       </c>
       <c r="H46">
-        <v>-0.0140774090690491</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.06605835887942077</v>
+      </c>
+      <c r="I46">
+        <v>0.01899895395331686</v>
+      </c>
+      <c r="J46">
+        <v>0.05743401314662903</v>
+      </c>
+      <c r="K46">
+        <v>0.002363158105547859</v>
+      </c>
+      <c r="L46">
+        <v>-0.00733515589060888</v>
+      </c>
+      <c r="M46">
+        <v>0.03786001818857703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.03004117244877494</v>
+        <v>-0.04452664673160283</v>
       </c>
       <c r="C47">
-        <v>0.005996305084811894</v>
+        <v>-0.02689075174895297</v>
       </c>
       <c r="D47">
-        <v>-0.004699723901148753</v>
+        <v>-0.01819147778369427</v>
       </c>
       <c r="E47">
-        <v>0.06383494125542249</v>
+        <v>0.03029335148916607</v>
       </c>
       <c r="F47">
-        <v>0.04191055969146656</v>
+        <v>-0.01843750908327519</v>
       </c>
       <c r="G47">
-        <v>0.03006937116001863</v>
+        <v>0.03717690921098993</v>
       </c>
       <c r="H47">
-        <v>-0.001053098572517566</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.02812370914798142</v>
+      </c>
+      <c r="I47">
+        <v>-0.02045781129813009</v>
+      </c>
+      <c r="J47">
+        <v>0.003028719068278618</v>
+      </c>
+      <c r="K47">
+        <v>0.03399437775719019</v>
+      </c>
+      <c r="L47">
+        <v>0.04046965892464605</v>
+      </c>
+      <c r="M47">
+        <v>0.04520367381972558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03521800319985564</v>
+        <v>-0.04095158703430437</v>
       </c>
       <c r="C48">
-        <v>-0.02262592021831555</v>
+        <v>-0.01556119446661345</v>
       </c>
       <c r="D48">
-        <v>0.007508148563497167</v>
+        <v>-0.01883526419437662</v>
       </c>
       <c r="E48">
-        <v>0.04550084244246472</v>
+        <v>0.03017482382429852</v>
       </c>
       <c r="F48">
-        <v>0.04142479481493275</v>
+        <v>-0.02643434456285299</v>
       </c>
       <c r="G48">
-        <v>0.01486448993438788</v>
+        <v>0.0006299603741894778</v>
       </c>
       <c r="H48">
-        <v>0.04739089285155627</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.06273032542342963</v>
+      </c>
+      <c r="I48">
+        <v>0.0210550115309016</v>
+      </c>
+      <c r="J48">
+        <v>-0.003586798959504326</v>
+      </c>
+      <c r="K48">
+        <v>0.0625407211718924</v>
+      </c>
+      <c r="L48">
+        <v>-0.005833896546238448</v>
+      </c>
+      <c r="M48">
+        <v>0.05385313635525737</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1886145701348386</v>
+        <v>-0.2237977783175712</v>
       </c>
       <c r="C49">
-        <v>-0.1206970417948861</v>
+        <v>-0.08331216626422815</v>
       </c>
       <c r="D49">
-        <v>0.07588015646378608</v>
+        <v>0.0904006908392736</v>
       </c>
       <c r="E49">
-        <v>-0.07530906190060883</v>
+        <v>-0.08926440650942895</v>
       </c>
       <c r="F49">
-        <v>0.03682868374002446</v>
+        <v>0.2074972660216917</v>
       </c>
       <c r="G49">
-        <v>-0.1704003144213079</v>
+        <v>-0.1900537525438928</v>
       </c>
       <c r="H49">
-        <v>-0.07073918724616576</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.01015995948616189</v>
+      </c>
+      <c r="I49">
+        <v>0.05973483357555669</v>
+      </c>
+      <c r="J49">
+        <v>-0.1208341362401637</v>
+      </c>
+      <c r="K49">
+        <v>-0.17647115491072</v>
+      </c>
+      <c r="L49">
+        <v>0.1289646667026691</v>
+      </c>
+      <c r="M49">
+        <v>-0.05631055148343467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05328566208868819</v>
+        <v>-0.04287231242368823</v>
       </c>
       <c r="C50">
-        <v>-0.03001931191939489</v>
+        <v>-0.04254798865731565</v>
       </c>
       <c r="D50">
-        <v>0.007007917282934529</v>
+        <v>-0.01413616718715268</v>
       </c>
       <c r="E50">
-        <v>0.01569500119407842</v>
+        <v>0.003661124006561834</v>
       </c>
       <c r="F50">
-        <v>0.04490801264876171</v>
+        <v>-0.03825145283978685</v>
       </c>
       <c r="G50">
-        <v>0.05073462780823503</v>
+        <v>0.05561974429897058</v>
       </c>
       <c r="H50">
-        <v>0.001896447193458362</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03788016948801049</v>
+      </c>
+      <c r="I50">
+        <v>-0.0290081316938166</v>
+      </c>
+      <c r="J50">
+        <v>0.02128762878228016</v>
+      </c>
+      <c r="K50">
+        <v>7.672691933687275e-05</v>
+      </c>
+      <c r="L50">
+        <v>-0.04644965916186358</v>
+      </c>
+      <c r="M50">
+        <v>0.02278215180924485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02426475388408423</v>
+        <v>-0.03174706751403772</v>
       </c>
       <c r="C51">
-        <v>-0.007974273133463919</v>
+        <v>-0.005107987449926627</v>
       </c>
       <c r="D51">
-        <v>-0.001722755819152113</v>
+        <v>0.01731055282677635</v>
       </c>
       <c r="E51">
-        <v>0.0161650560158832</v>
+        <v>0.01153608107750394</v>
       </c>
       <c r="F51">
-        <v>-0.006418624206513701</v>
+        <v>0.02206778614525912</v>
       </c>
       <c r="G51">
-        <v>-0.01974782721135264</v>
+        <v>-0.01783524999064228</v>
       </c>
       <c r="H51">
-        <v>-0.02746619761209348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01918456986824827</v>
+      </c>
+      <c r="I51">
+        <v>0.006358256363552383</v>
+      </c>
+      <c r="J51">
+        <v>-0.07133236084604716</v>
+      </c>
+      <c r="K51">
+        <v>-0.02397786542313003</v>
+      </c>
+      <c r="L51">
+        <v>0.06734309315302528</v>
+      </c>
+      <c r="M51">
+        <v>-0.05105964981479385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2055,114 +2835,189 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1655508967273484</v>
+        <v>-0.1536226179530715</v>
       </c>
       <c r="C53">
-        <v>-0.02376178279347667</v>
+        <v>-0.05380365505417312</v>
       </c>
       <c r="D53">
-        <v>0.03433684008486384</v>
+        <v>0.02555392005166878</v>
       </c>
       <c r="E53">
-        <v>-0.06361749363352225</v>
+        <v>-0.04834331068908888</v>
       </c>
       <c r="F53">
-        <v>-0.07334984527977255</v>
+        <v>0.02848963078070823</v>
       </c>
       <c r="G53">
-        <v>0.2690933737510813</v>
+        <v>0.2396114684496301</v>
       </c>
       <c r="H53">
-        <v>0.03844509757048438</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.08886173876960522</v>
+      </c>
+      <c r="I53">
+        <v>-0.0729574765098963</v>
+      </c>
+      <c r="J53">
+        <v>0.03408247784958822</v>
+      </c>
+      <c r="K53">
+        <v>-0.07806949720603396</v>
+      </c>
+      <c r="L53">
+        <v>-0.06358974388164672</v>
+      </c>
+      <c r="M53">
+        <v>-0.04273212156777353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05165907485397303</v>
+        <v>-0.05551642905997634</v>
       </c>
       <c r="C54">
-        <v>-0.03564984982234137</v>
+        <v>-0.03033441241962039</v>
       </c>
       <c r="D54">
-        <v>0.03329565615780198</v>
+        <v>-0.001712331842884203</v>
       </c>
       <c r="E54">
-        <v>0.03489848924840096</v>
+        <v>0.03310638389332446</v>
       </c>
       <c r="F54">
-        <v>0.0200012818731743</v>
+        <v>-0.1009088580927015</v>
       </c>
       <c r="G54">
-        <v>0.002424462132582583</v>
+        <v>0.03802224949093815</v>
       </c>
       <c r="H54">
-        <v>0.0327854920586064</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.0850743003423837</v>
+      </c>
+      <c r="I54">
+        <v>0.0124066293537643</v>
+      </c>
+      <c r="J54">
+        <v>0.05564651418798802</v>
+      </c>
+      <c r="K54">
+        <v>0.05255342371009185</v>
+      </c>
+      <c r="L54">
+        <v>-0.01259075231092424</v>
+      </c>
+      <c r="M54">
+        <v>0.05506775634578837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.0918786644795873</v>
+        <v>-0.0899270601718138</v>
       </c>
       <c r="C55">
-        <v>-0.008738155783303996</v>
+        <v>-0.04082433101114601</v>
       </c>
       <c r="D55">
-        <v>0.02996270604641483</v>
+        <v>0.02678935600532547</v>
       </c>
       <c r="E55">
-        <v>-0.005958079604381281</v>
+        <v>-0.01280326375003659</v>
       </c>
       <c r="F55">
-        <v>-0.02379123076471172</v>
+        <v>-0.02160026114365513</v>
       </c>
       <c r="G55">
-        <v>0.2391381930515916</v>
+        <v>0.1662014808957492</v>
       </c>
       <c r="H55">
-        <v>0.01284006166605652</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.02477583717413069</v>
+      </c>
+      <c r="I55">
+        <v>-0.04062216787002711</v>
+      </c>
+      <c r="J55">
+        <v>0.01722802996974452</v>
+      </c>
+      <c r="K55">
+        <v>-0.06352122198698401</v>
+      </c>
+      <c r="L55">
+        <v>-0.01469984984481352</v>
+      </c>
+      <c r="M55">
+        <v>0.005213400124388676</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1707645891817307</v>
+        <v>-0.1465448484957954</v>
       </c>
       <c r="C56">
-        <v>-0.02049658906257448</v>
+        <v>-0.07103842298769324</v>
       </c>
       <c r="D56">
-        <v>0.06632726156574613</v>
+        <v>0.02943908357581029</v>
       </c>
       <c r="E56">
-        <v>-0.05977568403534731</v>
+        <v>-0.02028416656287576</v>
       </c>
       <c r="F56">
-        <v>-0.08562738059434598</v>
+        <v>0.015347833317013</v>
       </c>
       <c r="G56">
-        <v>0.2257302876843785</v>
+        <v>0.2345243904190263</v>
       </c>
       <c r="H56">
-        <v>0.05524393802270341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1265843041882176</v>
+      </c>
+      <c r="I56">
+        <v>-0.05569837041161301</v>
+      </c>
+      <c r="J56">
+        <v>0.03792472308091707</v>
+      </c>
+      <c r="K56">
+        <v>-0.03557709221139444</v>
+      </c>
+      <c r="L56">
+        <v>-0.06829824935178887</v>
+      </c>
+      <c r="M56">
+        <v>0.01221523199183087</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.05054074591922419</v>
+        <v>-0.04229117510822908</v>
       </c>
       <c r="C58">
-        <v>-0.0392166981565365</v>
+        <v>-0.03518072149715665</v>
       </c>
       <c r="D58">
-        <v>0.04423369094169449</v>
+        <v>-0.02889302027960497</v>
       </c>
       <c r="E58">
-        <v>0.3008052127965077</v>
+        <v>0.08807084733287064</v>
       </c>
       <c r="F58">
-        <v>0.1973218171608206</v>
+        <v>0.01705117708456317</v>
       </c>
       <c r="G58">
-        <v>-0.1374624201616399</v>
+        <v>-0.0724719722661529</v>
       </c>
       <c r="H58">
-        <v>-0.005549654577676039</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.2247213696760853</v>
+      </c>
+      <c r="I58">
+        <v>-0.09677807842778627</v>
+      </c>
+      <c r="J58">
+        <v>-0.3859591977406795</v>
+      </c>
+      <c r="K58">
+        <v>0.4222782591699247</v>
+      </c>
+      <c r="L58">
+        <v>0.1151012381622414</v>
+      </c>
+      <c r="M58">
+        <v>0.03250885259907857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2454653655945211</v>
+        <v>-0.2268276804737671</v>
       </c>
       <c r="C59">
-        <v>0.4112738414027451</v>
+        <v>0.3089838011493705</v>
       </c>
       <c r="D59">
-        <v>0.05623264680673817</v>
+        <v>0.01757702613038046</v>
       </c>
       <c r="E59">
-        <v>0.04724763764629027</v>
+        <v>-0.0002606334030998658</v>
       </c>
       <c r="F59">
-        <v>-0.08745636498519942</v>
+        <v>-0.0219813669674119</v>
       </c>
       <c r="G59">
-        <v>0.00729024374941072</v>
+        <v>0.06482748014007385</v>
       </c>
       <c r="H59">
-        <v>-0.0003229992786055349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.09449406924131291</v>
+      </c>
+      <c r="I59">
+        <v>0.04012908397910704</v>
+      </c>
+      <c r="J59">
+        <v>-0.01319786554016835</v>
+      </c>
+      <c r="K59">
+        <v>-0.01180584596649884</v>
+      </c>
+      <c r="L59">
+        <v>0.03639515073041229</v>
+      </c>
+      <c r="M59">
+        <v>-0.01626082877096716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2430998255095008</v>
+        <v>-0.2409335958360141</v>
       </c>
       <c r="C60">
-        <v>-0.08590422769017013</v>
+        <v>-0.1129298482239415</v>
       </c>
       <c r="D60">
-        <v>0.08819040148469602</v>
+        <v>0.08123270711638209</v>
       </c>
       <c r="E60">
-        <v>-0.01225379872096447</v>
+        <v>-0.04808553823439302</v>
       </c>
       <c r="F60">
-        <v>-0.01069672814137591</v>
+        <v>0.08738168987246696</v>
       </c>
       <c r="G60">
-        <v>-0.058939998682166</v>
+        <v>-0.07673946798919459</v>
       </c>
       <c r="H60">
-        <v>-0.09603656973568006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1066066960684406</v>
+      </c>
+      <c r="I60">
+        <v>-0.1729979200963419</v>
+      </c>
+      <c r="J60">
+        <v>0.008135733147215867</v>
+      </c>
+      <c r="K60">
+        <v>-0.06263901353836689</v>
+      </c>
+      <c r="L60">
+        <v>0.04911222238603754</v>
+      </c>
+      <c r="M60">
+        <v>-0.2082751150111403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.07687942954244793</v>
+        <v>-0.08512018642533224</v>
       </c>
       <c r="C61">
-        <v>-0.05762180517149517</v>
+        <v>-0.05782885414904308</v>
       </c>
       <c r="D61">
-        <v>0.01807119292994026</v>
+        <v>0.01776819658642189</v>
       </c>
       <c r="E61">
-        <v>0.01073694713877498</v>
+        <v>0.02421494182026279</v>
       </c>
       <c r="F61">
-        <v>0.01792971585112269</v>
+        <v>-0.08681240126843336</v>
       </c>
       <c r="G61">
-        <v>0.01744322249938846</v>
+        <v>0.06091237666727071</v>
       </c>
       <c r="H61">
-        <v>0.01387084769483137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.04454859722693726</v>
+      </c>
+      <c r="I61">
+        <v>0.06296208365795089</v>
+      </c>
+      <c r="J61">
+        <v>-0.07197571540129716</v>
+      </c>
+      <c r="K61">
+        <v>0.009021823770461986</v>
+      </c>
+      <c r="L61">
+        <v>-0.0305843301882768</v>
+      </c>
+      <c r="M61">
+        <v>-0.02114759281304289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1637383975842515</v>
+        <v>-0.1471704436455444</v>
       </c>
       <c r="C62">
-        <v>-0.04768677669478232</v>
+        <v>-0.075774870053092</v>
       </c>
       <c r="D62">
-        <v>0.02136809700196305</v>
+        <v>0.0178880746047126</v>
       </c>
       <c r="E62">
-        <v>-0.1080256502367053</v>
+        <v>-0.06767136550600197</v>
       </c>
       <c r="F62">
-        <v>-0.0940364441507493</v>
+        <v>-0.01834865059480493</v>
       </c>
       <c r="G62">
-        <v>0.2514601126636124</v>
+        <v>0.2110296905967669</v>
       </c>
       <c r="H62">
-        <v>0.02916972822861936</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.07421778039151285</v>
+      </c>
+      <c r="I62">
+        <v>-0.07291121675553916</v>
+      </c>
+      <c r="J62">
+        <v>0.08688829286219008</v>
+      </c>
+      <c r="K62">
+        <v>-0.09144637072163672</v>
+      </c>
+      <c r="L62">
+        <v>-0.05123510610171098</v>
+      </c>
+      <c r="M62">
+        <v>0.09551263971157012</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.04553029240717416</v>
+        <v>-0.04518630003254948</v>
       </c>
       <c r="C63">
-        <v>-0.04799570564230432</v>
+        <v>-0.03034617884396427</v>
       </c>
       <c r="D63">
-        <v>0.0218898772051242</v>
+        <v>-0.005447121099644374</v>
       </c>
       <c r="E63">
-        <v>0.007527217344939651</v>
+        <v>0.002956141494923273</v>
       </c>
       <c r="F63">
-        <v>0.02164051955255655</v>
+        <v>-0.06063340466309617</v>
       </c>
       <c r="G63">
-        <v>0.04264878516060891</v>
+        <v>0.01732198441597089</v>
       </c>
       <c r="H63">
-        <v>-0.0173994364087905</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.07087667670717195</v>
+      </c>
+      <c r="I63">
+        <v>-0.01653655477118774</v>
+      </c>
+      <c r="J63">
+        <v>0.002008356288988478</v>
+      </c>
+      <c r="K63">
+        <v>0.008002734810623184</v>
+      </c>
+      <c r="L63">
+        <v>-0.008770910892231731</v>
+      </c>
+      <c r="M63">
+        <v>0.03257822171245025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.100645526616086</v>
+        <v>-0.1011691096483308</v>
       </c>
       <c r="C64">
-        <v>-0.03484276220123966</v>
+        <v>-0.04781339592830512</v>
       </c>
       <c r="D64">
-        <v>0.03593697705617796</v>
+        <v>0.02722608657188634</v>
       </c>
       <c r="E64">
-        <v>0.03606642142002572</v>
+        <v>0.03373974993024085</v>
       </c>
       <c r="F64">
-        <v>0.04265911381132716</v>
+        <v>-0.05182544356785405</v>
       </c>
       <c r="G64">
-        <v>-0.0149116455653088</v>
+        <v>-0.01092214010954381</v>
       </c>
       <c r="H64">
-        <v>-0.01004056902089311</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.05554834232675123</v>
+      </c>
+      <c r="I64">
+        <v>0.001997974824386877</v>
+      </c>
+      <c r="J64">
+        <v>-0.04150803901898301</v>
+      </c>
+      <c r="K64">
+        <v>-0.03111261503279779</v>
+      </c>
+      <c r="L64">
+        <v>-0.08182684561578699</v>
+      </c>
+      <c r="M64">
+        <v>-0.01906169020354319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.128977173797429</v>
+        <v>-0.1255837508192899</v>
       </c>
       <c r="C65">
-        <v>-0.06301417923007292</v>
+        <v>-0.04082267979038309</v>
       </c>
       <c r="D65">
-        <v>0.05784470219311875</v>
+        <v>0.01322071273049579</v>
       </c>
       <c r="E65">
-        <v>0.07449138712615046</v>
+        <v>-0.01305806923823269</v>
       </c>
       <c r="F65">
-        <v>0.1839739501010488</v>
+        <v>-0.0706612254244402</v>
       </c>
       <c r="G65">
-        <v>-0.0591161595588167</v>
+        <v>-0.1640502848994293</v>
       </c>
       <c r="H65">
-        <v>-0.2624023937996622</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.1933906695606787</v>
+      </c>
+      <c r="I65">
+        <v>-0.5855780140440432</v>
+      </c>
+      <c r="J65">
+        <v>0.2956328291147409</v>
+      </c>
+      <c r="K65">
+        <v>0.08365147265056842</v>
+      </c>
+      <c r="L65">
+        <v>0.1228754896271187</v>
+      </c>
+      <c r="M65">
+        <v>0.01083739644346922</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1552159205920016</v>
+        <v>-0.1252253218187753</v>
       </c>
       <c r="C66">
-        <v>-0.1508415743968192</v>
+        <v>-0.1241103861017023</v>
       </c>
       <c r="D66">
-        <v>0.05525071115202403</v>
+        <v>0.001758392921038004</v>
       </c>
       <c r="E66">
-        <v>-0.0024396306018975</v>
+        <v>0.02605132377580039</v>
       </c>
       <c r="F66">
-        <v>-0.04067693420960461</v>
+        <v>-0.10130389903444</v>
       </c>
       <c r="G66">
-        <v>0.006721117653683727</v>
+        <v>0.03853638957980732</v>
       </c>
       <c r="H66">
-        <v>-0.009769099705403019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.07415450201906346</v>
+      </c>
+      <c r="I66">
+        <v>0.1628623531642533</v>
+      </c>
+      <c r="J66">
+        <v>-0.1627946973308644</v>
+      </c>
+      <c r="K66">
+        <v>-0.01124845376973763</v>
+      </c>
+      <c r="L66">
+        <v>-0.1291983123724499</v>
+      </c>
+      <c r="M66">
+        <v>-0.1221908926792317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07207919080022869</v>
+        <v>-0.0852756186678067</v>
       </c>
       <c r="C67">
-        <v>-0.04464434293084271</v>
+        <v>-0.06931902605653935</v>
       </c>
       <c r="D67">
-        <v>0.004508227993113974</v>
+        <v>0.01567188129502678</v>
       </c>
       <c r="E67">
-        <v>0.01401832121272891</v>
+        <v>0.03837081960730827</v>
       </c>
       <c r="F67">
-        <v>-0.01088803158494879</v>
+        <v>0.02532328677662199</v>
       </c>
       <c r="G67">
-        <v>-0.02638243384586581</v>
+        <v>0.01663456864330947</v>
       </c>
       <c r="H67">
-        <v>0.03648820811762173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.1111802522492185</v>
+      </c>
+      <c r="I67">
+        <v>0.04746841259051546</v>
+      </c>
+      <c r="J67">
+        <v>0.0736156315815724</v>
+      </c>
+      <c r="K67">
+        <v>-0.07593264387010248</v>
+      </c>
+      <c r="L67">
+        <v>-0.008871863968820524</v>
+      </c>
+      <c r="M67">
+        <v>0.01290098790313076</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.1049281983952045</v>
+        <v>-0.1223097755222006</v>
       </c>
       <c r="C68">
-        <v>0.2597553370560165</v>
+        <v>0.2710924304714759</v>
       </c>
       <c r="D68">
-        <v>0.01309951493649769</v>
+        <v>-0.01055565666922942</v>
       </c>
       <c r="E68">
-        <v>0.02011095621394477</v>
+        <v>0.02566025759350521</v>
       </c>
       <c r="F68">
-        <v>0.009884488832503629</v>
+        <v>0.0009620290029367676</v>
       </c>
       <c r="G68">
-        <v>0.02958589535727737</v>
+        <v>0.03027537889224777</v>
       </c>
       <c r="H68">
-        <v>0.02692827455216588</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.02766020910609151</v>
+      </c>
+      <c r="I68">
+        <v>-0.05136218774092741</v>
+      </c>
+      <c r="J68">
+        <v>0.02817949356765181</v>
+      </c>
+      <c r="K68">
+        <v>0.0249257270278238</v>
+      </c>
+      <c r="L68">
+        <v>-0.03324273351942151</v>
+      </c>
+      <c r="M68">
+        <v>0.03309999050797718</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04635545591932652</v>
+        <v>-0.04600017404267019</v>
       </c>
       <c r="C69">
-        <v>-0.02539963061173125</v>
+        <v>-0.02514442483483091</v>
       </c>
       <c r="D69">
-        <v>0.0109745778344797</v>
+        <v>-0.01057492846282253</v>
       </c>
       <c r="E69">
-        <v>0.02566015142711209</v>
+        <v>0.005895861739216968</v>
       </c>
       <c r="F69">
-        <v>-0.03933180427359134</v>
+        <v>-0.02657458107374303</v>
       </c>
       <c r="G69">
-        <v>0.03069691571627296</v>
+        <v>0.03728450220910657</v>
       </c>
       <c r="H69">
-        <v>-0.004446097738391715</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01637243125968648</v>
+      </c>
+      <c r="I69">
+        <v>-0.001004470800703084</v>
+      </c>
+      <c r="J69">
+        <v>-0.01649434839081547</v>
+      </c>
+      <c r="K69">
+        <v>0.02217719677130354</v>
+      </c>
+      <c r="L69">
+        <v>0.05017690767442342</v>
+      </c>
+      <c r="M69">
+        <v>0.05543663208802437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.03215521446625291</v>
+        <v>-0.05486971996651545</v>
       </c>
       <c r="C70">
-        <v>-0.008197220125784523</v>
+        <v>-0.03652410483533695</v>
       </c>
       <c r="D70">
-        <v>-0.01120417546090357</v>
+        <v>0.02842618188277022</v>
       </c>
       <c r="E70">
-        <v>0.01087401504760492</v>
+        <v>-0.03285202200228865</v>
       </c>
       <c r="F70">
-        <v>0.01616645068411915</v>
+        <v>-0.03229888732677279</v>
       </c>
       <c r="G70">
-        <v>-0.09745581052069797</v>
+        <v>-0.03777205620236739</v>
       </c>
       <c r="H70">
-        <v>0.04798083211976705</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.05113356986245371</v>
+      </c>
+      <c r="I70">
+        <v>0.1385913464364157</v>
+      </c>
+      <c r="J70">
+        <v>0.1378685348296808</v>
+      </c>
+      <c r="K70">
+        <v>0.1622004018790478</v>
+      </c>
+      <c r="L70">
+        <v>0.02971327906584966</v>
+      </c>
+      <c r="M70">
+        <v>0.07107108266977077</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.108910530545562</v>
+        <v>-0.1362499424986522</v>
       </c>
       <c r="C71">
-        <v>0.2765390330917935</v>
+        <v>0.2805765784619022</v>
       </c>
       <c r="D71">
-        <v>0.04624053347882921</v>
+        <v>0.01009139188948604</v>
       </c>
       <c r="E71">
-        <v>0.007798035959053847</v>
+        <v>0.03514314810509473</v>
       </c>
       <c r="F71">
-        <v>0.01581516307658421</v>
+        <v>-0.004108764224414492</v>
       </c>
       <c r="G71">
-        <v>-0.007387516645987426</v>
+        <v>0.01885688505313401</v>
       </c>
       <c r="H71">
-        <v>0.0276379164467365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.02863064386636207</v>
+      </c>
+      <c r="I71">
+        <v>-0.01326389715174853</v>
+      </c>
+      <c r="J71">
+        <v>0.004047659419498187</v>
+      </c>
+      <c r="K71">
+        <v>-0.004312690775718136</v>
+      </c>
+      <c r="L71">
+        <v>-0.009010402169538691</v>
+      </c>
+      <c r="M71">
+        <v>0.01476458127613804</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1839473427818308</v>
+        <v>-0.1443302112142844</v>
       </c>
       <c r="C72">
-        <v>-0.02383139400704811</v>
+        <v>-0.03487564363840151</v>
       </c>
       <c r="D72">
-        <v>-0.215358935328159</v>
+        <v>-0.144046149765914</v>
       </c>
       <c r="E72">
-        <v>-0.02201019892450453</v>
+        <v>-0.1122883003447984</v>
       </c>
       <c r="F72">
-        <v>-0.01351649361958082</v>
+        <v>-0.09369291921413737</v>
       </c>
       <c r="G72">
-        <v>-0.00244625981471987</v>
+        <v>0.01183780842594749</v>
       </c>
       <c r="H72">
-        <v>-0.1297910921393806</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.02750323289405415</v>
+      </c>
+      <c r="I72">
+        <v>-0.1522990054617285</v>
+      </c>
+      <c r="J72">
+        <v>0.03861019846767534</v>
+      </c>
+      <c r="K72">
+        <v>-0.06468093462003302</v>
+      </c>
+      <c r="L72">
+        <v>0.04459029938315832</v>
+      </c>
+      <c r="M72">
+        <v>-0.001759458429546638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2666952568901953</v>
+        <v>-0.2350481252919747</v>
       </c>
       <c r="C73">
-        <v>-0.1779566413118672</v>
+        <v>-0.155113344297771</v>
       </c>
       <c r="D73">
-        <v>0.1595253287344931</v>
+        <v>0.1933949648177999</v>
       </c>
       <c r="E73">
-        <v>-0.08517334882079744</v>
+        <v>-0.1269934714041132</v>
       </c>
       <c r="F73">
-        <v>0.1213707244396618</v>
+        <v>0.363032198028928</v>
       </c>
       <c r="G73">
-        <v>-0.1318375448798088</v>
+        <v>-0.2756299786415525</v>
       </c>
       <c r="H73">
-        <v>-0.1659931612151541</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.06645200594027488</v>
+      </c>
+      <c r="I73">
+        <v>-0.1348806025128879</v>
+      </c>
+      <c r="J73">
+        <v>-0.4441064020885538</v>
+      </c>
+      <c r="K73">
+        <v>-0.2297822708101779</v>
+      </c>
+      <c r="L73">
+        <v>0.04232924733724294</v>
+      </c>
+      <c r="M73">
+        <v>0.05542678770205565</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.08989792833208132</v>
+        <v>-0.08871310614329413</v>
       </c>
       <c r="C74">
-        <v>-0.02367885743835252</v>
+        <v>-0.06586086248584899</v>
       </c>
       <c r="D74">
-        <v>0.01929979628706143</v>
+        <v>0.009439547947256842</v>
       </c>
       <c r="E74">
-        <v>-0.02078572755570757</v>
+        <v>-0.01850468484765877</v>
       </c>
       <c r="F74">
-        <v>0.03010797756707198</v>
+        <v>0.02023685726715143</v>
       </c>
       <c r="G74">
-        <v>0.1632542347605777</v>
+        <v>0.1455499750401749</v>
       </c>
       <c r="H74">
-        <v>0.005499700986179717</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.01877266019675803</v>
+      </c>
+      <c r="I74">
+        <v>-0.04091778344343634</v>
+      </c>
+      <c r="J74">
+        <v>-0.03837581039840037</v>
+      </c>
+      <c r="K74">
+        <v>-0.05509280455731558</v>
+      </c>
+      <c r="L74">
+        <v>-0.01221418307472503</v>
+      </c>
+      <c r="M74">
+        <v>0.06112054287811752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.1011406569512413</v>
+        <v>-0.09132557437837778</v>
       </c>
       <c r="C75">
-        <v>-0.02155932274675264</v>
+        <v>-0.05051291535532589</v>
       </c>
       <c r="D75">
-        <v>0.02136838737706953</v>
+        <v>0.000160331199411702</v>
       </c>
       <c r="E75">
-        <v>-0.01657370251033122</v>
+        <v>-0.01629962140178409</v>
       </c>
       <c r="F75">
-        <v>-0.08131702283222658</v>
+        <v>0.01053908612129108</v>
       </c>
       <c r="G75">
-        <v>0.1019839374939513</v>
+        <v>0.1165059824244928</v>
       </c>
       <c r="H75">
-        <v>0.04297078565139977</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.08126515319027437</v>
+      </c>
+      <c r="I75">
+        <v>-0.008952590337347565</v>
+      </c>
+      <c r="J75">
+        <v>0.02258334893492686</v>
+      </c>
+      <c r="K75">
+        <v>0.03629382048735227</v>
+      </c>
+      <c r="L75">
+        <v>0.06325269176818127</v>
+      </c>
+      <c r="M75">
+        <v>0.02811085819482969</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1334060604256924</v>
+        <v>-0.1040789578626007</v>
       </c>
       <c r="C76">
-        <v>-0.03807408304361502</v>
+        <v>-0.07327806973664718</v>
       </c>
       <c r="D76">
-        <v>0.02703072689601793</v>
+        <v>0.02627621791658468</v>
       </c>
       <c r="E76">
-        <v>-0.01680371730561109</v>
+        <v>-0.02024343778913868</v>
       </c>
       <c r="F76">
-        <v>-0.05583933155846271</v>
+        <v>0.03072182258148451</v>
       </c>
       <c r="G76">
-        <v>0.2431463531831645</v>
+        <v>0.219985046703724</v>
       </c>
       <c r="H76">
-        <v>0.02065840244882489</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.08026828000256261</v>
+      </c>
+      <c r="I76">
+        <v>-0.0620504271196833</v>
+      </c>
+      <c r="J76">
+        <v>0.009794117326800793</v>
+      </c>
+      <c r="K76">
+        <v>-0.07834580507622581</v>
+      </c>
+      <c r="L76">
+        <v>-0.09089363292424121</v>
+      </c>
+      <c r="M76">
+        <v>0.007428956302458378</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.08257681778065692</v>
+        <v>-0.07180975067394617</v>
       </c>
       <c r="C77">
-        <v>-0.05689694751036276</v>
+        <v>-0.01851561503752063</v>
       </c>
       <c r="D77">
-        <v>-0.05683234976257814</v>
+        <v>-0.01852942304277144</v>
       </c>
       <c r="E77">
-        <v>0.3798970157874864</v>
+        <v>0.1374131451688901</v>
       </c>
       <c r="F77">
-        <v>-0.5328943695635714</v>
+        <v>-0.5782346059275891</v>
       </c>
       <c r="G77">
-        <v>-0.153837690027794</v>
+        <v>-0.381274598316659</v>
       </c>
       <c r="H77">
-        <v>-0.5053881871020488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.5339261976755617</v>
+      </c>
+      <c r="I77">
+        <v>-0.06592208195663928</v>
+      </c>
+      <c r="J77">
+        <v>-0.09910094223436035</v>
+      </c>
+      <c r="K77">
+        <v>-0.1661360016717284</v>
+      </c>
+      <c r="L77">
+        <v>-0.1022913864323938</v>
+      </c>
+      <c r="M77">
+        <v>0.02533909778790452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1210689171771369</v>
+        <v>-0.1621228862594693</v>
       </c>
       <c r="C78">
-        <v>-0.09661939571056136</v>
+        <v>-0.1115860497017536</v>
       </c>
       <c r="D78">
-        <v>0.02140254643309831</v>
+        <v>-0.01908501622644425</v>
       </c>
       <c r="E78">
-        <v>0.1041611754018788</v>
+        <v>0.1874006926985061</v>
       </c>
       <c r="F78">
-        <v>0.09286258282886742</v>
+        <v>-0.02927652091728363</v>
       </c>
       <c r="G78">
-        <v>-0.03579531542899942</v>
+        <v>-0.06677334013832208</v>
       </c>
       <c r="H78">
-        <v>0.04187614115646671</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.167919319896534</v>
+      </c>
+      <c r="I78">
+        <v>0.1687319299323786</v>
+      </c>
+      <c r="J78">
+        <v>0.1608230794045098</v>
+      </c>
+      <c r="K78">
+        <v>-0.1896768304638889</v>
+      </c>
+      <c r="L78">
+        <v>0.2762108220199464</v>
+      </c>
+      <c r="M78">
+        <v>-0.5744764660834475</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1479959917953618</v>
+        <v>-0.1366501612031207</v>
       </c>
       <c r="C79">
-        <v>-0.05492375912510088</v>
+        <v>-0.0756829956692202</v>
       </c>
       <c r="D79">
-        <v>0.03348175247555229</v>
+        <v>0.01142341744901323</v>
       </c>
       <c r="E79">
-        <v>-0.03298456321542443</v>
+        <v>-0.00625377451872379</v>
       </c>
       <c r="F79">
-        <v>-0.08196451833936805</v>
+        <v>-0.01177695808074424</v>
       </c>
       <c r="G79">
-        <v>0.1577126349928582</v>
+        <v>0.1702678655142556</v>
       </c>
       <c r="H79">
-        <v>0.062934343683393</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.08634958372653433</v>
+      </c>
+      <c r="I79">
+        <v>-0.0584319155181149</v>
+      </c>
+      <c r="J79">
+        <v>0.04526000213393688</v>
+      </c>
+      <c r="K79">
+        <v>-0.01603237898644418</v>
+      </c>
+      <c r="L79">
+        <v>-0.005924723110137616</v>
+      </c>
+      <c r="M79">
+        <v>0.08332023759344302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.01698966242825229</v>
+        <v>-0.03785218866967806</v>
       </c>
       <c r="C80">
-        <v>0.008388641779852849</v>
+        <v>-0.01502445490321839</v>
       </c>
       <c r="D80">
-        <v>-0.005651080901555123</v>
+        <v>0.04986261124060168</v>
       </c>
       <c r="E80">
-        <v>-0.004809270430774496</v>
+        <v>-0.06800176019035593</v>
       </c>
       <c r="F80">
-        <v>0.04612169301072835</v>
+        <v>-0.04400583882975816</v>
       </c>
       <c r="G80">
-        <v>0.00839768096833521</v>
+        <v>0.01434379690564596</v>
       </c>
       <c r="H80">
-        <v>-0.04357632398729062</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.1101321488019499</v>
+      </c>
+      <c r="I80">
+        <v>0.0394205515743396</v>
+      </c>
+      <c r="J80">
+        <v>-0.02293823441913597</v>
+      </c>
+      <c r="K80">
+        <v>-0.005749433813763204</v>
+      </c>
+      <c r="L80">
+        <v>0.0763052434947062</v>
+      </c>
+      <c r="M80">
+        <v>-0.005681342751859383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1177731702590739</v>
+        <v>-0.1203300468537796</v>
       </c>
       <c r="C81">
-        <v>-0.04356540065201746</v>
+        <v>-0.05224954190131128</v>
       </c>
       <c r="D81">
-        <v>0.04094037063504842</v>
+        <v>0.01172972636842509</v>
       </c>
       <c r="E81">
-        <v>-0.02757138535464164</v>
+        <v>-0.003453866281695862</v>
       </c>
       <c r="F81">
-        <v>-0.04001197838147384</v>
+        <v>-0.01517644095418856</v>
       </c>
       <c r="G81">
-        <v>0.1002047312346034</v>
+        <v>0.1678532899171185</v>
       </c>
       <c r="H81">
-        <v>0.01014132443650249</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.05048062427600708</v>
+      </c>
+      <c r="I81">
+        <v>-0.007528227181878915</v>
+      </c>
+      <c r="J81">
+        <v>-0.03407394536609364</v>
+      </c>
+      <c r="K81">
+        <v>0.02249274111041474</v>
+      </c>
+      <c r="L81">
+        <v>0.0131503211011246</v>
+      </c>
+      <c r="M81">
+        <v>0.01521049770791526</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1148285951647709</v>
+        <v>-0.1175006673052472</v>
       </c>
       <c r="C82">
-        <v>-0.05290976227187237</v>
+        <v>-0.05961903313252263</v>
       </c>
       <c r="D82">
-        <v>0.06443606290842649</v>
+        <v>0.01840872522002666</v>
       </c>
       <c r="E82">
-        <v>-0.06394836562411911</v>
+        <v>-0.02431599957462417</v>
       </c>
       <c r="F82">
-        <v>-0.1210071312808904</v>
+        <v>0.01938226266056242</v>
       </c>
       <c r="G82">
-        <v>0.2578029170777384</v>
+        <v>0.2526270138350964</v>
       </c>
       <c r="H82">
-        <v>0.09042164958490266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.09761069060941387</v>
+      </c>
+      <c r="I82">
+        <v>0.0372399167432819</v>
+      </c>
+      <c r="J82">
+        <v>0.0122774563552233</v>
+      </c>
+      <c r="K82">
+        <v>-0.01533422586653561</v>
+      </c>
+      <c r="L82">
+        <v>-0.04030915820643217</v>
+      </c>
+      <c r="M82">
+        <v>0.1520489066833072</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.04906398127040869</v>
+        <v>-0.0753436177184906</v>
       </c>
       <c r="C83">
-        <v>-0.03111297632861849</v>
+        <v>-0.0599635735988196</v>
       </c>
       <c r="D83">
-        <v>0.03758647894396208</v>
+        <v>0.03118060176246475</v>
       </c>
       <c r="E83">
-        <v>-0.01907251654693405</v>
+        <v>0.006031109508970369</v>
       </c>
       <c r="F83">
-        <v>-0.001039717039600229</v>
+        <v>-0.01848975490087053</v>
       </c>
       <c r="G83">
-        <v>-0.1105314985818925</v>
+        <v>-0.03333789043818885</v>
       </c>
       <c r="H83">
-        <v>0.04035778186950184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.00361263601489169</v>
+      </c>
+      <c r="I83">
+        <v>0.09631072204317997</v>
+      </c>
+      <c r="J83">
+        <v>0.04957008110319321</v>
+      </c>
+      <c r="K83">
+        <v>0.08619596010414877</v>
+      </c>
+      <c r="L83">
+        <v>0.0426826102507172</v>
+      </c>
+      <c r="M83">
+        <v>0.01518400921137579</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05254870421749673</v>
+        <v>-0.04030797640000588</v>
       </c>
       <c r="C84">
-        <v>-0.02368086767677651</v>
+        <v>0.02441168874392842</v>
       </c>
       <c r="D84">
-        <v>-0.01006487933280123</v>
+        <v>-0.03159902841467754</v>
       </c>
       <c r="E84">
-        <v>-0.02311634903811271</v>
+        <v>0.0002435268083498986</v>
       </c>
       <c r="F84">
-        <v>0.105637807287349</v>
+        <v>0.03338682889319177</v>
       </c>
       <c r="G84">
-        <v>0.02618754805033125</v>
+        <v>-0.1280953524181238</v>
       </c>
       <c r="H84">
-        <v>0.07476731236018047</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.2437268737236768</v>
+      </c>
+      <c r="I84">
+        <v>0.2505065112700693</v>
+      </c>
+      <c r="J84">
+        <v>0.1825197748206923</v>
+      </c>
+      <c r="K84">
+        <v>-0.3849120274857851</v>
+      </c>
+      <c r="L84">
+        <v>-0.08536242175173396</v>
+      </c>
+      <c r="M84">
+        <v>0.2441351057713895</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.07783322732773279</v>
+        <v>-0.107023956142814</v>
       </c>
       <c r="C85">
-        <v>-0.04217283131435402</v>
+        <v>-0.05295959791944496</v>
       </c>
       <c r="D85">
-        <v>0.06241720290063889</v>
+        <v>0.04445152182191083</v>
       </c>
       <c r="E85">
-        <v>-0.01704346328996154</v>
+        <v>0.009024103776520704</v>
       </c>
       <c r="F85">
-        <v>-0.04303439847299102</v>
+        <v>-0.006475100354444136</v>
       </c>
       <c r="G85">
-        <v>0.1755027440638793</v>
+        <v>0.1778062324694069</v>
       </c>
       <c r="H85">
-        <v>0.005501356987459838</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.0644600264438271</v>
+      </c>
+      <c r="I85">
+        <v>-0.0526511879850227</v>
+      </c>
+      <c r="J85">
+        <v>0.0372163557404774</v>
+      </c>
+      <c r="K85">
+        <v>-0.04088355612674413</v>
+      </c>
+      <c r="L85">
+        <v>0.01840282955381209</v>
+      </c>
+      <c r="M85">
+        <v>0.04096246688431945</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.03967492631031187</v>
+        <v>-0.07206210483777348</v>
       </c>
       <c r="C86">
-        <v>-0.05077475634788694</v>
+        <v>-0.02131349114054266</v>
       </c>
       <c r="D86">
-        <v>-0.01043268325295349</v>
+        <v>-0.0005918998777079668</v>
       </c>
       <c r="E86">
-        <v>0.04349405359145189</v>
+        <v>0.05374937283268026</v>
       </c>
       <c r="F86">
-        <v>0.03612576744994095</v>
+        <v>-0.01417634885022903</v>
       </c>
       <c r="G86">
-        <v>-0.0441846443272598</v>
+        <v>-0.07054791483044764</v>
       </c>
       <c r="H86">
-        <v>-0.07919118294558293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.1295309613819605</v>
+      </c>
+      <c r="I86">
+        <v>0.2423188809192645</v>
+      </c>
+      <c r="J86">
+        <v>0.2395548760090166</v>
+      </c>
+      <c r="K86">
+        <v>-0.2623746080829031</v>
+      </c>
+      <c r="L86">
+        <v>0.2477291260719547</v>
+      </c>
+      <c r="M86">
+        <v>0.03178627504528116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09950737055997246</v>
+        <v>-0.116301303826087</v>
       </c>
       <c r="C87">
-        <v>-0.06614485765147277</v>
+        <v>-0.06591403418308305</v>
       </c>
       <c r="D87">
-        <v>-0.007265907339962484</v>
+        <v>-0.02301674795699474</v>
       </c>
       <c r="E87">
-        <v>0.1681244019248023</v>
+        <v>0.07306823034725328</v>
       </c>
       <c r="F87">
-        <v>-0.09194861074341493</v>
+        <v>-0.1811000877372302</v>
       </c>
       <c r="G87">
-        <v>-0.04137496144415247</v>
+        <v>-0.1519792223583785</v>
       </c>
       <c r="H87">
-        <v>-0.1337189197376777</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.04856969019141019</v>
+      </c>
+      <c r="I87">
+        <v>0.02695105774353843</v>
+      </c>
+      <c r="J87">
+        <v>-0.01825038742282388</v>
+      </c>
+      <c r="K87">
+        <v>-0.04070816464485357</v>
+      </c>
+      <c r="L87">
+        <v>-0.06466465328651935</v>
+      </c>
+      <c r="M87">
+        <v>0.1227714878296687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.04608044216615084</v>
+        <v>-0.05897166785665482</v>
       </c>
       <c r="C88">
-        <v>-0.03648193918550057</v>
+        <v>-0.05349070980769277</v>
       </c>
       <c r="D88">
-        <v>0.01604641874053781</v>
+        <v>0.02826170373293447</v>
       </c>
       <c r="E88">
-        <v>0.006576354923995421</v>
+        <v>-0.006689089473114667</v>
       </c>
       <c r="F88">
-        <v>0.006848651043224505</v>
+        <v>-0.03373773761582732</v>
       </c>
       <c r="G88">
-        <v>-0.0219962107214831</v>
+        <v>0.02416039309620584</v>
       </c>
       <c r="H88">
-        <v>0.001367032768057634</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.03894187517119837</v>
+      </c>
+      <c r="I88">
+        <v>0.03055649341530562</v>
+      </c>
+      <c r="J88">
+        <v>-0.03156414248421153</v>
+      </c>
+      <c r="K88">
+        <v>0.01111238462318845</v>
+      </c>
+      <c r="L88">
+        <v>0.009608730722515575</v>
+      </c>
+      <c r="M88">
+        <v>-0.0234011136186973</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1702785651818342</v>
+        <v>-0.2211282074345342</v>
       </c>
       <c r="C89">
-        <v>0.3122829686175749</v>
+        <v>0.3544167527863381</v>
       </c>
       <c r="D89">
-        <v>0.08372930797208182</v>
+        <v>0.05162688785226749</v>
       </c>
       <c r="E89">
-        <v>0.09668147998798969</v>
+        <v>0.07308351285279904</v>
       </c>
       <c r="F89">
-        <v>0.01089094201998828</v>
+        <v>0.009041906643121374</v>
       </c>
       <c r="G89">
-        <v>-0.03878798815935919</v>
+        <v>0.006512608812422578</v>
       </c>
       <c r="H89">
-        <v>0.02929276551661318</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.01092185823656414</v>
+      </c>
+      <c r="I89">
+        <v>0.04575894989142133</v>
+      </c>
+      <c r="J89">
+        <v>-0.09303416497983386</v>
+      </c>
+      <c r="K89">
+        <v>0.08288436438596844</v>
+      </c>
+      <c r="L89">
+        <v>0.04536797114518148</v>
+      </c>
+      <c r="M89">
+        <v>-0.01037025073140267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1323218739022399</v>
+        <v>-0.1499350512188475</v>
       </c>
       <c r="C90">
-        <v>0.2660916186002051</v>
+        <v>0.2650322307100589</v>
       </c>
       <c r="D90">
-        <v>0.02254732197634907</v>
+        <v>0.01065905477491006</v>
       </c>
       <c r="E90">
-        <v>0.06384823779670884</v>
+        <v>0.02509458759903817</v>
       </c>
       <c r="F90">
-        <v>0.02056220099971997</v>
+        <v>-0.02255122122877198</v>
       </c>
       <c r="G90">
-        <v>-0.03250922178113382</v>
+        <v>-0.02538803955283206</v>
       </c>
       <c r="H90">
-        <v>-0.0144595114794091</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.02941149495832965</v>
+      </c>
+      <c r="I90">
+        <v>-0.00436580794685259</v>
+      </c>
+      <c r="J90">
+        <v>-0.04464320724865607</v>
+      </c>
+      <c r="K90">
+        <v>-0.0198222713289847</v>
+      </c>
+      <c r="L90">
+        <v>-0.03448428605413748</v>
+      </c>
+      <c r="M90">
+        <v>-0.03862483258848153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08432491346598718</v>
+        <v>-0.0751610589795506</v>
       </c>
       <c r="C91">
-        <v>-0.03289577875945401</v>
+        <v>-0.05344175548690847</v>
       </c>
       <c r="D91">
-        <v>0.01824821876917237</v>
+        <v>0.005746128795831243</v>
       </c>
       <c r="E91">
-        <v>0.0004872955074466893</v>
+        <v>-0.002777701007671942</v>
       </c>
       <c r="F91">
-        <v>-0.03149717001428028</v>
+        <v>0.01147935429189278</v>
       </c>
       <c r="G91">
-        <v>0.1093071545465486</v>
+        <v>0.09192250691059879</v>
       </c>
       <c r="H91">
-        <v>0.02401623939398989</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.05271626864469063</v>
+      </c>
+      <c r="I91">
+        <v>-0.02210170442312324</v>
+      </c>
+      <c r="J91">
+        <v>-0.01891581545673465</v>
+      </c>
+      <c r="K91">
+        <v>0.008094431201015174</v>
+      </c>
+      <c r="L91">
+        <v>0.01799617109177173</v>
+      </c>
+      <c r="M91">
+        <v>0.005514453381170941</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1479568650814568</v>
+        <v>-0.1698448978135431</v>
       </c>
       <c r="C92">
-        <v>0.309073464132083</v>
+        <v>0.3024309632532624</v>
       </c>
       <c r="D92">
-        <v>0.06159389424350495</v>
+        <v>0.01533820455720861</v>
       </c>
       <c r="E92">
-        <v>0.02339366563484814</v>
+        <v>0.05289614377735258</v>
       </c>
       <c r="F92">
-        <v>0.06378867936329806</v>
+        <v>0.01877413761779504</v>
       </c>
       <c r="G92">
-        <v>-0.003279598411204133</v>
+        <v>0.03617520558978398</v>
       </c>
       <c r="H92">
-        <v>0.05875202119656196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03239306663947948</v>
+      </c>
+      <c r="I92">
+        <v>0.01582354242341523</v>
+      </c>
+      <c r="J92">
+        <v>-0.03481586664634941</v>
+      </c>
+      <c r="K92">
+        <v>0.007753519835524822</v>
+      </c>
+      <c r="L92">
+        <v>0.0003507809862118809</v>
+      </c>
+      <c r="M92">
+        <v>0.008167237869561124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1377762693397797</v>
+        <v>-0.1642884029520267</v>
       </c>
       <c r="C93">
-        <v>0.2502514874913568</v>
+        <v>0.2879079643035944</v>
       </c>
       <c r="D93">
-        <v>0.03225248723299209</v>
+        <v>0.008207839772152409</v>
       </c>
       <c r="E93">
-        <v>0.02832473252173176</v>
+        <v>0.008361797785915351</v>
       </c>
       <c r="F93">
-        <v>0.01234946424618387</v>
+        <v>0.003311962929100461</v>
       </c>
       <c r="G93">
-        <v>-0.0575252253084504</v>
+        <v>-0.009638833594957307</v>
       </c>
       <c r="H93">
-        <v>0.003201642464918917</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.01582470799195137</v>
+      </c>
+      <c r="I93">
+        <v>0.01486843582222889</v>
+      </c>
+      <c r="J93">
+        <v>0.02515339463314897</v>
+      </c>
+      <c r="K93">
+        <v>0.004558250639527476</v>
+      </c>
+      <c r="L93">
+        <v>-0.0202073497233355</v>
+      </c>
+      <c r="M93">
+        <v>0.002703749790725633</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.08769041137018969</v>
+        <v>-0.1054998017250874</v>
       </c>
       <c r="C94">
-        <v>-0.06313540996762609</v>
+        <v>-0.07738052239980381</v>
       </c>
       <c r="D94">
-        <v>0.02237483403708598</v>
+        <v>0.01810939510112684</v>
       </c>
       <c r="E94">
-        <v>0.01014371856340505</v>
+        <v>0.01530010969651383</v>
       </c>
       <c r="F94">
-        <v>-0.0500061645655226</v>
+        <v>0.04580252421469434</v>
       </c>
       <c r="G94">
-        <v>0.1403072649203864</v>
+        <v>0.1258733212288249</v>
       </c>
       <c r="H94">
-        <v>0.06921674129003526</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.04581408932246064</v>
+      </c>
+      <c r="I94">
+        <v>-0.02063313930374877</v>
+      </c>
+      <c r="J94">
+        <v>0.005133888548806999</v>
+      </c>
+      <c r="K94">
+        <v>0.03898603096897306</v>
+      </c>
+      <c r="L94">
+        <v>0.05369913634211045</v>
+      </c>
+      <c r="M94">
+        <v>0.03928789843158829</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1000126191487113</v>
+        <v>-0.1358356712285093</v>
       </c>
       <c r="C95">
-        <v>-0.107973611432087</v>
+        <v>-0.07844202961034316</v>
       </c>
       <c r="D95">
-        <v>0.09151101684712759</v>
+        <v>0.03889835720516188</v>
       </c>
       <c r="E95">
-        <v>0.01618972077589629</v>
+        <v>0.06131524585113667</v>
       </c>
       <c r="F95">
-        <v>0.05866589007339526</v>
+        <v>-0.03618981912531046</v>
       </c>
       <c r="G95">
-        <v>-0.0240013564704016</v>
+        <v>-0.1474902984650616</v>
       </c>
       <c r="H95">
-        <v>-0.04787439699107726</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1647179160849247</v>
+      </c>
+      <c r="I95">
+        <v>0.04283545283963305</v>
+      </c>
+      <c r="J95">
+        <v>-0.02368139801286251</v>
+      </c>
+      <c r="K95">
+        <v>0.02321400740320781</v>
+      </c>
+      <c r="L95">
+        <v>0.178259605807667</v>
+      </c>
+      <c r="M95">
+        <v>0.5640929720362433</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.3166592650552186</v>
+        <v>-0.1755361297608515</v>
       </c>
       <c r="C97">
-        <v>-0.005116461079918581</v>
+        <v>-0.004043882143457098</v>
       </c>
       <c r="D97">
-        <v>-0.8648148208261788</v>
+        <v>-0.7963984824599253</v>
       </c>
       <c r="E97">
-        <v>-0.1777243129791728</v>
+        <v>-0.4995175230015327</v>
       </c>
       <c r="F97">
-        <v>0.08096834095547277</v>
+        <v>-0.05075597698393753</v>
       </c>
       <c r="G97">
-        <v>-0.05172083803787344</v>
+        <v>-0.05555780466616066</v>
       </c>
       <c r="H97">
-        <v>-0.03750698210968598</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.04810112508173461</v>
+      </c>
+      <c r="I97">
+        <v>0.04888096865833712</v>
+      </c>
+      <c r="J97">
+        <v>-0.07914975787406474</v>
+      </c>
+      <c r="K97">
+        <v>0.004325908248251264</v>
+      </c>
+      <c r="L97">
+        <v>0.02306860028574376</v>
+      </c>
+      <c r="M97">
+        <v>-0.02573894322589714</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2533938439048362</v>
+        <v>-0.259679948921706</v>
       </c>
       <c r="C98">
-        <v>-0.11655836965315</v>
+        <v>-0.1299250452514304</v>
       </c>
       <c r="D98">
-        <v>0.1745644696626786</v>
+        <v>0.135848033845317</v>
       </c>
       <c r="E98">
-        <v>-0.3627887716478392</v>
+        <v>-0.196877408572619</v>
       </c>
       <c r="F98">
-        <v>0.0448090462680375</v>
+        <v>0.2878931407039044</v>
       </c>
       <c r="G98">
-        <v>-0.5139459803175145</v>
+        <v>-0.3130349698949642</v>
       </c>
       <c r="H98">
-        <v>0.2598732205747969</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.1381064905461081</v>
+      </c>
+      <c r="I98">
+        <v>0.244400254517118</v>
+      </c>
+      <c r="J98">
+        <v>0.3331023639563596</v>
+      </c>
+      <c r="K98">
+        <v>0.3775542770821482</v>
+      </c>
+      <c r="L98">
+        <v>-0.3828121369962337</v>
+      </c>
+      <c r="M98">
+        <v>-0.01839556234404779</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06405025842913134</v>
+        <v>-0.07380336449417384</v>
       </c>
       <c r="C99">
-        <v>-0.06784179735953609</v>
+        <v>-0.06133408025609562</v>
       </c>
       <c r="D99">
-        <v>-0.05642210130032852</v>
+        <v>-0.0272260055216745</v>
       </c>
       <c r="E99">
-        <v>0.1122248333123418</v>
+        <v>0.05420735601496186</v>
       </c>
       <c r="F99">
-        <v>-0.6193806688120036</v>
+        <v>-0.003447781107610815</v>
       </c>
       <c r="G99">
-        <v>-0.2381406753138452</v>
+        <v>0.02467003353383168</v>
       </c>
       <c r="H99">
-        <v>0.5084411905839262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.3637228809722924</v>
+      </c>
+      <c r="I99">
+        <v>0.2345297139433755</v>
+      </c>
+      <c r="J99">
+        <v>0.08145819673533285</v>
+      </c>
+      <c r="K99">
+        <v>0.3730219919718216</v>
+      </c>
+      <c r="L99">
+        <v>0.5476547743088672</v>
+      </c>
+      <c r="M99">
+        <v>-2.596066907272428e-05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.0455791008760582</v>
+        <v>-0.04524971923099705</v>
       </c>
       <c r="C101">
-        <v>-0.008362474926845035</v>
+        <v>-0.02276853782885926</v>
       </c>
       <c r="D101">
-        <v>0.01300625406092399</v>
+        <v>0.01211915965306127</v>
       </c>
       <c r="E101">
-        <v>0.02613590130390646</v>
+        <v>0.02332766608727357</v>
       </c>
       <c r="F101">
-        <v>0.0385789563325058</v>
+        <v>-0.04695096093153127</v>
       </c>
       <c r="G101">
-        <v>0.01443177592293399</v>
+        <v>0.05546133854346746</v>
       </c>
       <c r="H101">
-        <v>-0.01333427317443527</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.0565249999003779</v>
+      </c>
+      <c r="I101">
+        <v>0.002341218778598872</v>
+      </c>
+      <c r="J101">
+        <v>0.01398180530793933</v>
+      </c>
+      <c r="K101">
+        <v>-0.0005434120208412252</v>
+      </c>
+      <c r="L101">
+        <v>-0.01810108515209279</v>
+      </c>
+      <c r="M101">
+        <v>0.01053363389520666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
